--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\modpack_dev_helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31332C53-ADAB-467C-B51F-5D094922E6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7AF54-DF3C-44B1-B102-CF50CA4C2D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2940" windowWidth="20430" windowHeight="12405" firstSheet="1" activeTab="4" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Affixes" sheetId="3" r:id="rId6"/>
     <sheet name="Perks" sheetId="5" r:id="rId7"/>
     <sheet name="Spell School" sheetId="6" r:id="rId8"/>
+    <sheet name="Origin Powers" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Craft Progression'!$A$1:$E$1</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="485">
   <si>
     <t>Mod Name</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Controlling for Fabric</t>
   </si>
   <si>
-    <t>Cotton</t>
-  </si>
-  <si>
     <t>Craftable Utilities</t>
   </si>
   <si>
@@ -240,9 +238,6 @@
     <t>Roughly Enough Resources</t>
   </si>
   <si>
-    <t>Simple Drawers</t>
-  </si>
-  <si>
     <t>Sodium</t>
   </si>
   <si>
@@ -621,9 +616,6 @@
     <t>spell_water_damage</t>
   </si>
   <si>
-    <t>static_bonus_damage</t>
-  </si>
-  <si>
     <t>strength</t>
   </si>
   <si>
@@ -933,9 +925,6 @@
     <t>Light Overlay</t>
   </si>
   <si>
-    <t>gear_type</t>
-  </si>
-  <si>
     <t>Stat V</t>
   </si>
   <si>
@@ -948,9 +937,6 @@
     <t>Stat VIII</t>
   </si>
   <si>
-    <t>Lifesprig</t>
-  </si>
-  <si>
     <t>Usual Value</t>
   </si>
   <si>
@@ -960,18 +946,9 @@
     <t>wand2</t>
   </si>
   <si>
-    <t>Eye of Zegrath</t>
-  </si>
-  <si>
-    <t>The Poet's Pen</t>
-  </si>
-  <si>
     <t>wand3</t>
   </si>
   <si>
-    <t>Redbeak</t>
-  </si>
-  <si>
     <t>sword0</t>
   </si>
   <si>
@@ -979,6 +956,552 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>static_bonus_dmg</t>
+  </si>
+  <si>
+    <t>1.16.3</t>
+  </si>
+  <si>
+    <t>Gear Type</t>
+  </si>
+  <si>
+    <t>Stat IX</t>
+  </si>
+  <si>
+    <t>Stat X</t>
+  </si>
+  <si>
+    <t>angel_prot_necklace</t>
+  </si>
+  <si>
+    <t>all_res_necklace0</t>
+  </si>
+  <si>
+    <t>'50.0-100.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'1.0-1.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'3.0-5.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.5-0.75/0.0-0.0</t>
+  </si>
+  <si>
+    <t>skull_of_spirits</t>
+  </si>
+  <si>
+    <t>all_res_necklace1</t>
+  </si>
+  <si>
+    <t>'0.15-0.4/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'10.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'-5.0--15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>limbsplit</t>
+  </si>
+  <si>
+    <t>axe0</t>
+  </si>
+  <si>
+    <t>'80.0-100.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'5.0-10.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.25-0.5/0.0-0.0</t>
+  </si>
+  <si>
+    <t>ngamahus_flame</t>
+  </si>
+  <si>
+    <t>axe4</t>
+  </si>
+  <si>
+    <t>'3.0-5.0/5.0-12.0</t>
+  </si>
+  <si>
+    <t>'15.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'1.0-3.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'15.0-30.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>wanderlust</t>
+  </si>
+  <si>
+    <t>cloth_boots0</t>
+  </si>
+  <si>
+    <t>'3.0-3.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'2.0-2.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.25-0.50/0.0-0.0</t>
+  </si>
+  <si>
+    <t>rainbowstride</t>
+  </si>
+  <si>
+    <t>cloth_boots1</t>
+  </si>
+  <si>
+    <t>'30.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'40.0-60.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'25.0-25.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>thousand_ribbons</t>
+  </si>
+  <si>
+    <t>cloth_chest0</t>
+  </si>
+  <si>
+    <t>'6.0-6.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>cloak_of_flame</t>
+  </si>
+  <si>
+    <t>cloth_chest1</t>
+  </si>
+  <si>
+    <t>'10.0-10.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'20.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>cloth_goldwyrm</t>
+  </si>
+  <si>
+    <t>cloth_golden_boots</t>
+  </si>
+  <si>
+    <t>'14.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'30.0-40.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>cloth_skullders_ire</t>
+  </si>
+  <si>
+    <t>cloth_golden_chest</t>
+  </si>
+  <si>
+    <t>'100.0-100.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>cloth_goldrim</t>
+  </si>
+  <si>
+    <t>cloth_golden_helmet</t>
+  </si>
+  <si>
+    <t>'20.0-40.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>leather_goldwrap</t>
+  </si>
+  <si>
+    <t>cloth_golden_pants</t>
+  </si>
+  <si>
+    <t>'30.0-30.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>peasant_crown</t>
+  </si>
+  <si>
+    <t>cloth_helmet0</t>
+  </si>
+  <si>
+    <t>'30.0-35.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'40.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.2-0.4/0.0-0.0</t>
+  </si>
+  <si>
+    <t>asenaths_mark</t>
+  </si>
+  <si>
+    <t>cloth_helmet1</t>
+  </si>
+  <si>
+    <t>'10.0-15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>jester_hat</t>
+  </si>
+  <si>
+    <t>cloth_helmet3</t>
+  </si>
+  <si>
+    <t>'-15.0-15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.2-0.6/0.0-0.0</t>
+  </si>
+  <si>
+    <t>inner_conflux</t>
+  </si>
+  <si>
+    <t>cloth_helmet4</t>
+  </si>
+  <si>
+    <t>'5.0-15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'10.0-30.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'1.0-2.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'-8.0--3.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.4-0.6/0.0-0.0</t>
+  </si>
+  <si>
+    <t>greed_persist</t>
+  </si>
+  <si>
+    <t>fire_res_ring_end</t>
+  </si>
+  <si>
+    <t>'-40.0-40.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>axe_gull</t>
+  </si>
+  <si>
+    <t>golden_axe</t>
+  </si>
+  <si>
+    <t>'-5.0--5.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>sword_gull</t>
+  </si>
+  <si>
+    <t>golden_sword</t>
+  </si>
+  <si>
+    <t>hotspur</t>
+  </si>
+  <si>
+    <t>leather_boots0</t>
+  </si>
+  <si>
+    <t>'45.0-45.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'15.0-15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>deerstalker</t>
+  </si>
+  <si>
+    <t>leather_boots1</t>
+  </si>
+  <si>
+    <t>'35.0-45.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>briskwrap</t>
+  </si>
+  <si>
+    <t>leather_chest0</t>
+  </si>
+  <si>
+    <t>'60.0-80.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'20.0-25.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>ashrend</t>
+  </si>
+  <si>
+    <t>leather_chest1</t>
+  </si>
+  <si>
+    <t>'50.0-60.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>exec_pride</t>
+  </si>
+  <si>
+    <t>leather_chest4</t>
+  </si>
+  <si>
+    <t>'10.0-40.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'5.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>leather_goldwyrm</t>
+  </si>
+  <si>
+    <t>leather_golden_boots</t>
+  </si>
+  <si>
+    <t>leather_skullders_ire</t>
+  </si>
+  <si>
+    <t>leather_golden_chest</t>
+  </si>
+  <si>
+    <t>leather_goldrim</t>
+  </si>
+  <si>
+    <t>leather_golden_helmet</t>
+  </si>
+  <si>
+    <t>leather_golden_pants</t>
+  </si>
+  <si>
+    <t>heatshiver</t>
+  </si>
+  <si>
+    <t>leather_helmet0</t>
+  </si>
+  <si>
+    <t>'20.0-30.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>alphas_howl</t>
+  </si>
+  <si>
+    <t>leather_helmet1</t>
+  </si>
+  <si>
+    <t>'80.0-120.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'15.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.20-0.25/0.0-0.0</t>
+  </si>
+  <si>
+    <t>birth_miracle</t>
+  </si>
+  <si>
+    <t>life_necklace1</t>
+  </si>
+  <si>
+    <t>'3.0-8.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.1-0.2/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'2.0-5.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>loop_of_infinity</t>
+  </si>
+  <si>
+    <t>mana_reg_ring1</t>
+  </si>
+  <si>
+    <t>'1.0-4.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>tearhaunch</t>
+  </si>
+  <si>
+    <t>plate_boots0</t>
+  </si>
+  <si>
+    <t>'5.0-5.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>stormcharger</t>
+  </si>
+  <si>
+    <t>plate_boots1</t>
+  </si>
+  <si>
+    <t>'1.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'15.0-25.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>solaris_lorica</t>
+  </si>
+  <si>
+    <t>plate_chest0</t>
+  </si>
+  <si>
+    <t>'-25.0--15.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>iron_heart</t>
+  </si>
+  <si>
+    <t>plate_chest1</t>
+  </si>
+  <si>
+    <t>'-40.0--30.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'0.6-0.7/0.0-0.0</t>
+  </si>
+  <si>
+    <t>beast_blood</t>
+  </si>
+  <si>
+    <t>plate_chest4</t>
+  </si>
+  <si>
+    <t>'-15.0--5.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>plate_goldwyrm</t>
+  </si>
+  <si>
+    <t>plate_golden_boots</t>
+  </si>
+  <si>
+    <t>plate_skullders_ire</t>
+  </si>
+  <si>
+    <t>plate_golden_chest</t>
+  </si>
+  <si>
+    <t>plate_goldrim</t>
+  </si>
+  <si>
+    <t>plate_golden_helmet</t>
+  </si>
+  <si>
+    <t>plate_goldwrap</t>
+  </si>
+  <si>
+    <t>plate_golden_pants</t>
+  </si>
+  <si>
+    <t>enzomyte_hold</t>
+  </si>
+  <si>
+    <t>plate_helmet0</t>
+  </si>
+  <si>
+    <t>'25.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'-100.0--100.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>the_baron</t>
+  </si>
+  <si>
+    <t>plate_helmet1</t>
+  </si>
+  <si>
+    <t>'50.0-50.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>the_fetid_sprinkler</t>
+  </si>
+  <si>
+    <t>scepter0</t>
+  </si>
+  <si>
+    <t>will_of_flora</t>
+  </si>
+  <si>
+    <t>scepter3</t>
+  </si>
+  <si>
+    <t>'5.0-5.0/5.0-5.0</t>
+  </si>
+  <si>
+    <t>divine_might</t>
+  </si>
+  <si>
+    <t>scepter4</t>
+  </si>
+  <si>
+    <t>'1.0-3.0/3.0-5.0</t>
+  </si>
+  <si>
+    <t>'5.0-25.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>redbeak</t>
+  </si>
+  <si>
+    <t>'40.0-40.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>water_ele_sword</t>
+  </si>
+  <si>
+    <t>sword3</t>
+  </si>
+  <si>
+    <t>'1.0-3.0/4.0-12.0</t>
+  </si>
+  <si>
+    <t>frost_bonus_dmg</t>
+  </si>
+  <si>
+    <t>inca_thunder</t>
+  </si>
+  <si>
+    <t>sword4</t>
+  </si>
+  <si>
+    <t>'1.0-1.0/10.0-16.0</t>
+  </si>
+  <si>
+    <t>'-20.0-20.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>'-200.0--10.0/0.0-0.0</t>
+  </si>
+  <si>
+    <t>lifesprig</t>
+  </si>
+  <si>
+    <t>eye_of_zegrath</t>
+  </si>
+  <si>
+    <t>the_poets_pen</t>
+  </si>
+  <si>
+    <t>Origins Classes</t>
+  </si>
+  <si>
+    <t>Join Message</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,13 +1523,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1058,17 +1574,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1104,6 +1619,979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95519</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A965A25E-5737-446D-8377-14E701EFC24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1924319" cy="933580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>305013</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A3DB2E-D8B2-4685-BE3B-B6D48E1476EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="914400"/>
+          <a:ext cx="1524213" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190782</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>143004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C0642E-3CCC-465D-9551-B5ED1E97F5F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1504950"/>
+          <a:ext cx="2019582" cy="924054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171729</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2568A131-A61C-4A5F-8A45-B8C0851BD5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2409825"/>
+          <a:ext cx="2000529" cy="924054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181256</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC722CF-36CE-4E0A-863C-E0BB7746FDBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3314700"/>
+          <a:ext cx="2010056" cy="762106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514592</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C439947D-58C6-4E6A-BCB9-B94F8BEECFF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4076700"/>
+          <a:ext cx="1733792" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F8AA88-0419-4BA4-BF17-A3D6DBF704D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="0"/>
+          <a:ext cx="1743318" cy="971686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114555</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3115B0F8-A30C-4266-BC25-A72D33D8C7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="952500"/>
+          <a:ext cx="1829055" cy="924054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDFF2A5-C6EC-449F-997A-AF9DE4A4E6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="1847850"/>
+          <a:ext cx="1962424" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305167</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780B64BA-53CD-4AA8-A8AE-65FABF9760D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2628900"/>
+          <a:ext cx="2629267" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68EA8C7-AC11-4837-84D1-26D2E1B4C2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2914650"/>
+          <a:ext cx="2295845" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54B7D94-E2CF-43F5-92B3-B744AB8FAC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="3209925"/>
+          <a:ext cx="2648320" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200377</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE26CF9D-F251-4B7A-B197-181075745E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="3533775"/>
+          <a:ext cx="2524477" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448062</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79022105-72FC-4B6F-AB4D-8CEE0699E59E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="3848100"/>
+          <a:ext cx="2772162" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F9B21B-E2EC-43BD-97F5-139D934B748D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="4133850"/>
+          <a:ext cx="2324424" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7ACA4A-6B3F-468B-B622-A370E63F9EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="4467225"/>
+          <a:ext cx="2457793" cy="485843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57510</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4890DC04-3A72-4B5D-B0C2-2831796E7C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="0"/>
+          <a:ext cx="2581635" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400458</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1BE6F2-9963-42C1-8457-4208A61FC15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="314325"/>
+          <a:ext cx="2924583" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774DC27B-D5DC-405F-9F5E-48C5DAE1CB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="628650"/>
+          <a:ext cx="2695951" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514689</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28F5AF1-FF31-4399-A29D-FFFEF62B5F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="904875"/>
+          <a:ext cx="2429214" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486110</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870D1852-8F26-4035-891B-4F2580F562C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="1209675"/>
+          <a:ext cx="2400635" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95616</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB84E66-FD73-44FD-9897-7E0183089D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="1485900"/>
+          <a:ext cx="2619741" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,8 +2896,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,1290 +2910,1295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>84</v>
+      <c r="D1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="9"/>
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="B49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="B50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="B51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="B52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="B53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="B54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="A55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="B57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="B62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="B63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
+      <c r="B64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="A66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
+      <c r="B69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
+      <c r="B70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+      <c r="B71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="B77" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
+      <c r="B79" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
+      <c r="B80" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
+      <c r="B81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="B84" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+        <v>289</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>292</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+        <v>483</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>293</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
+        <v>484</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{3414C23D-BC06-4A3D-BCED-D9F94DB413AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F88">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:A85 A87:A90">
+  <conditionalFormatting sqref="A85:A90 A2:A83">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>C2="?"</formula>
     </cfRule>
@@ -2731,364 +4224,364 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -3128,418 +4621,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" t="s">
         <v>270</v>
       </c>
-      <c r="I12" t="s">
-        <v>273</v>
-      </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" t="s">
         <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>228</v>
-      </c>
-      <c r="G15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" t="s">
-        <v>275</v>
-      </c>
-      <c r="I15" t="s">
-        <v>273</v>
-      </c>
-      <c r="J15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3573,34 +5066,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -3608,16 +5101,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -3625,16 +5118,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -3642,16 +5135,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -3659,16 +5152,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>0.2</v>
@@ -3676,16 +5169,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -3693,16 +5186,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8">
         <v>0.2</v>
@@ -3710,16 +5203,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -3727,16 +5220,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -3744,16 +5237,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -3761,16 +5254,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0.6</v>
@@ -3778,16 +5271,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>0.7</v>
@@ -3808,15 +5301,15 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -3827,113 +5320,1814 @@
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="R1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" t="s">
+        <v>359</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>359</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>376</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>377</v>
+      </c>
+      <c r="M17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>345</v>
+      </c>
+      <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
+        <v>350</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
+        <v>404</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>353</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" t="s">
+        <v>345</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>414</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
+        <v>414</v>
+      </c>
+      <c r="K30" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>418</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" t="s">
+        <v>418</v>
+      </c>
+      <c r="K31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>362</v>
+      </c>
+      <c r="M31" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" t="s">
+        <v>419</v>
+      </c>
+      <c r="O31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>424</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>427</v>
+      </c>
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
+        <v>430</v>
+      </c>
+      <c r="K34" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" t="s">
+        <v>430</v>
+      </c>
+      <c r="M34" t="s">
+        <v>190</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>345</v>
+      </c>
+      <c r="G35" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" t="s">
+        <v>434</v>
+      </c>
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
+        <v>359</v>
+      </c>
+      <c r="K35" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>435</v>
+      </c>
+      <c r="B36" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" t="s">
+        <v>437</v>
+      </c>
+      <c r="K36" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>438</v>
+      </c>
+      <c r="B37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>440</v>
+      </c>
+      <c r="G37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" t="s">
+        <v>444</v>
+      </c>
+      <c r="K38" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" t="s">
+        <v>350</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>451</v>
+      </c>
+      <c r="B42" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>190</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>455</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>457</v>
+      </c>
+      <c r="B44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>455</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="s">
+        <v>459</v>
+      </c>
+      <c r="G44" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" t="s">
+        <v>322</v>
+      </c>
+      <c r="I44" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>190</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>460</v>
+      </c>
+      <c r="B45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>455</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>467</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>468</v>
+      </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+      <c r="B48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" t="s">
+        <v>317</v>
+      </c>
+      <c r="I48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" t="s">
+        <v>329</v>
+      </c>
+      <c r="I49" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B50" t="s">
+        <v>476</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" t="s">
+        <v>478</v>
+      </c>
+      <c r="I50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>480</v>
+      </c>
+      <c r="B51" t="s">
         <v>297</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>367</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>481</v>
+      </c>
+      <c r="B52" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" t="s">
+        <v>322</v>
+      </c>
+      <c r="I52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>482</v>
+      </c>
+      <c r="B53" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>154</v>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3948,8 +7142,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,596 +7154,596 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4587,4 +7781,19 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5111F9C7-9123-4544-8E5F-8E47C302FDE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7AF54-DF3C-44B1-B102-CF50CA4C2D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF35FA-677E-4CC7-90AD-6399B1C8CE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="493">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1502,6 +1502,30 @@
   </si>
   <si>
     <t>Join Message</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Save the Pets</t>
+  </si>
+  <si>
+    <t>Villager Fix</t>
+  </si>
+  <si>
+    <t>Chat Heads</t>
+  </si>
+  <si>
+    <t>Oh, The Biomes You'll Go</t>
+  </si>
+  <si>
+    <t>Audio Output</t>
+  </si>
+  <si>
+    <t>Disable Custom World's Advice</t>
+  </si>
+  <si>
+    <t>Less Greedy Piglins</t>
   </si>
 </sst>
 </file>
@@ -2894,10 +2918,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2955,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>73</v>
@@ -2947,7 +2971,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>73</v>
@@ -2963,7 +2987,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>73</v>
@@ -2979,7 +3003,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>73</v>
@@ -2995,7 +3019,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>73</v>
@@ -3011,7 +3035,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>73</v>
@@ -3027,7 +3051,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>73</v>
@@ -3043,7 +3067,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>73</v>
@@ -3059,7 +3083,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>73</v>
@@ -3075,7 +3099,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>73</v>
@@ -3091,7 +3115,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>73</v>
@@ -3107,7 +3131,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>73</v>
@@ -3123,7 +3147,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>73</v>
@@ -3139,7 +3163,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>73</v>
@@ -3155,14 +3179,12 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>73</v>
       </c>
@@ -3171,7 +3193,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>73</v>
@@ -3187,12 +3209,14 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3225,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>73</v>
@@ -3217,12 +3241,12 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3232,8 +3256,8 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
+      <c r="A21" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>73</v>
@@ -3249,37 +3273,35 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+        <v>488</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+        <v>491</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>73</v>
@@ -3293,7 +3315,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>73</v>
@@ -3307,7 +3329,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>73</v>
@@ -3321,19 +3343,21 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>73</v>
@@ -3347,21 +3371,21 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>304</v>
-      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>73</v>
@@ -3375,7 +3399,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>73</v>
@@ -3387,7 +3411,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>73</v>
@@ -3401,47 +3425,47 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>73</v>
@@ -3455,7 +3479,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>73</v>
@@ -3469,21 +3493,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>73</v>
@@ -3497,7 +3519,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>73</v>
@@ -3511,7 +3533,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>73</v>
@@ -3525,19 +3547,21 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>73</v>
@@ -3551,7 +3575,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>73</v>
@@ -3565,7 +3589,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>73</v>
@@ -3578,24 +3602,20 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>77</v>
+      <c r="A46" t="s">
+        <v>28</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>73</v>
@@ -3609,7 +3629,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>73</v>
@@ -3623,7 +3643,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>73</v>
@@ -3636,8 +3656,8 @@
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>37</v>
+      <c r="A50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>73</v>
@@ -3646,12 +3666,14 @@
         <v>73</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>73</v>
@@ -3665,7 +3687,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>73</v>
@@ -3679,7 +3701,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>73</v>
@@ -3693,7 +3715,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>73</v>
@@ -3706,8 +3728,8 @@
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>84</v>
+      <c r="A55" t="s">
+        <v>38</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>73</v>
@@ -3721,7 +3743,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>73</v>
@@ -3735,7 +3757,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>73</v>
@@ -3749,7 +3771,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>73</v>
@@ -3763,7 +3785,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>73</v>
@@ -3777,12 +3799,12 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="8"/>
@@ -3791,12 +3813,12 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="8"/>
@@ -3805,12 +3827,12 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="8"/>
@@ -3819,7 +3841,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>73</v>
@@ -3833,19 +3855,21 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>73</v>
@@ -3858,8 +3882,8 @@
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>53</v>
+      <c r="A66" t="s">
+        <v>49</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>73</v>
@@ -3873,7 +3897,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>73</v>
@@ -3885,19 +3909,21 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>56</v>
+      <c r="A69" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>73</v>
@@ -3911,35 +3937,31 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C70" s="9"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C71" s="9"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>73</v>
@@ -3953,19 +3975,21 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>73</v>
@@ -3979,21 +4003,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C75" s="9"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>73</v>
@@ -4007,19 +4029,21 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>73</v>
@@ -4033,33 +4057,33 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="C79" s="9"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>73</v>
@@ -4073,7 +4097,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>73</v>
@@ -4085,12 +4109,12 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="8"/>
@@ -4099,21 +4123,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C84" s="9"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>73</v>
@@ -4127,7 +4149,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>73</v>
@@ -4141,7 +4163,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>73</v>
@@ -4155,7 +4177,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>73</v>
@@ -4169,7 +4191,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>289</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>73</v>
@@ -4177,28 +4199,122 @@
       <c r="C89" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>484</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="B92" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>485</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>486</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>490</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>492</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{3414C23D-BC06-4A3D-BCED-D9F94DB413AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F88">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F98">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A85:A90 A2:A83">
+  <conditionalFormatting sqref="A2:A83 A85:A98">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>C2="?"</formula>
     </cfRule>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF35FA-677E-4CC7-90AD-6399B1C8CE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6FE80C-0D30-4597-B5C1-01B6FA5CF9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="501">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1526,6 +1526,30 @@
   </si>
   <si>
     <t>Less Greedy Piglins</t>
+  </si>
+  <si>
+    <t>Better Weather</t>
+  </si>
+  <si>
+    <t>Dungeons of Exile</t>
+  </si>
+  <si>
+    <t>Get Off My Lawn</t>
+  </si>
+  <si>
+    <t>Wild World</t>
+  </si>
+  <si>
+    <t>Common Expansion: Foodstuffs</t>
+  </si>
+  <si>
+    <t>Pet Owner</t>
+  </si>
+  <si>
+    <t>Respawnable Pets</t>
+  </si>
+  <si>
+    <t>Project: Save the Pets!</t>
   </si>
 </sst>
 </file>
@@ -2918,10 +2942,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>490</v>
       </c>
@@ -4297,7 +4321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>492</v>
       </c>
@@ -4305,6 +4329,97 @@
         <v>73</v>
       </c>
       <c r="C98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>493</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>494</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>495</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>496</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>497</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>498</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>499</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>500</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4314,7 +4429,7 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:A83 A85:A98">
+  <conditionalFormatting sqref="A2:A83 A85:A106">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>C2="?"</formula>
     </cfRule>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6FE80C-0D30-4597-B5C1-01B6FA5CF9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F744EED-02A0-438B-A816-9387D45502BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" activeTab="2" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="510">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1550,6 +1550,33 @@
   </si>
   <si>
     <t>Project: Save the Pets!</t>
+  </si>
+  <si>
+    <t>Leaf Decay</t>
+  </si>
+  <si>
+    <t>Player Roles</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Breath of the Dying</t>
+  </si>
+  <si>
+    <t>Call to Arms</t>
+  </si>
+  <si>
+    <t>Last Wish</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Shield</t>
   </si>
 </sst>
 </file>
@@ -2942,10 +2969,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,7 +4337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>490</v>
       </c>
@@ -4321,7 +4348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>492</v>
       </c>
@@ -4332,7 +4359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>493</v>
       </c>
@@ -4343,7 +4370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>494</v>
       </c>
@@ -4354,7 +4381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>495</v>
       </c>
@@ -4365,7 +4392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>496</v>
       </c>
@@ -4376,7 +4403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>497</v>
       </c>
@@ -4387,7 +4414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>498</v>
       </c>
@@ -4401,7 +4428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>499</v>
       </c>
@@ -4412,7 +4439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>500</v>
       </c>
@@ -4420,6 +4447,34 @@
         <v>73</v>
       </c>
       <c r="C106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4429,7 +4484,7 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:A83 A85:A106">
+  <conditionalFormatting sqref="A2:A83 A85:A108">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>C2="?"</formula>
     </cfRule>
@@ -4831,10 +4886,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,7 +4978,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="G3" t="s">
         <v>266</v>
@@ -5087,7 +5142,7 @@
         <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="G10" t="s">
         <v>268</v>
@@ -5240,7 +5295,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -5264,6 +5319,192 @@
       </c>
       <c r="J17" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" t="s">
+        <v>274</v>
+      </c>
+      <c r="H19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" t="s">
+        <v>269</v>
+      </c>
+      <c r="J19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" t="s">
+        <v>271</v>
+      </c>
+      <c r="J21" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>509</v>
+      </c>
+      <c r="G22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5284,7 +5525,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5534,7 +5775,7 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -7373,7 +7614,7 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F744EED-02A0-438B-A816-9387D45502BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C4B65-7B86-415E-B432-1647039F6155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22305" yWindow="3750" windowWidth="20430" windowHeight="12390" activeTab="2" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="-23040" yWindow="4290" windowWidth="20430" windowHeight="12390" activeTab="4" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="511">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1577,6 +1577,9 @@
   </si>
   <si>
     <t>Shield</t>
+  </si>
+  <si>
+    <t>heal_to_damage</t>
   </si>
 </sst>
 </file>
@@ -4888,8 +4891,8 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +5528,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5559,7 +5562,7 @@
         <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -5576,7 +5579,7 @@
         <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>187</v>
@@ -5593,7 +5596,7 @@
         <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>186</v>
@@ -5633,7 +5636,7 @@
         <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0.2</v>
@@ -5647,10 +5650,10 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>510</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -5661,7 +5664,7 @@
         <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>188</v>
@@ -5735,7 +5738,7 @@
         <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0.6</v>
@@ -5749,10 +5752,10 @@
         <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="E13">
         <v>0.7</v>
@@ -5775,14 +5778,14 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -7614,8 +7617,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q90" sqref="Q90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C4B65-7B86-415E-B432-1647039F6155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDCEA33-BD90-4F23-9EF7-50B1E7EA44E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="4290" windowWidth="20430" windowHeight="12390" activeTab="4" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="5" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Runes" sheetId="8" r:id="rId4"/>
     <sheet name="Uniques" sheetId="2" r:id="rId5"/>
     <sheet name="Affixes" sheetId="3" r:id="rId6"/>
-    <sheet name="Perks" sheetId="5" r:id="rId7"/>
+    <sheet name="Perk Info" sheetId="5" r:id="rId7"/>
     <sheet name="Spell School" sheetId="6" r:id="rId8"/>
     <sheet name="Origin Powers" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="869">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1580,6 +1580,1080 @@
   </si>
   <si>
     <t>heal_to_damage</t>
+  </si>
+  <si>
+    <t>arcane_bolt</t>
+  </si>
+  <si>
+    <t>arcane_bolt_cast_speed</t>
+  </si>
+  <si>
+    <t>arcane_bolt_cooldown</t>
+  </si>
+  <si>
+    <t>arcane_bolt_damage</t>
+  </si>
+  <si>
+    <t>arcane_bolt_healing</t>
+  </si>
+  <si>
+    <t>arcane_bolt_mana_cost</t>
+  </si>
+  <si>
+    <t>arcane_bolt_projectile_speed</t>
+  </si>
+  <si>
+    <t>arcane_comet</t>
+  </si>
+  <si>
+    <t>arcane_comet_cast_speed</t>
+  </si>
+  <si>
+    <t>arcane_comet_cooldown</t>
+  </si>
+  <si>
+    <t>arcane_comet_damage</t>
+  </si>
+  <si>
+    <t>arcane_comet_healing</t>
+  </si>
+  <si>
+    <t>arcane_comet_mana_cost</t>
+  </si>
+  <si>
+    <t>arcane_comet_projectile_speed</t>
+  </si>
+  <si>
+    <t>arrow_barrage</t>
+  </si>
+  <si>
+    <t>arrow_barrage_cast_speed</t>
+  </si>
+  <si>
+    <t>arrow_barrage_cooldown</t>
+  </si>
+  <si>
+    <t>arrow_barrage_damage</t>
+  </si>
+  <si>
+    <t>arrow_barrage_healing</t>
+  </si>
+  <si>
+    <t>arrow_barrage_mana_cost</t>
+  </si>
+  <si>
+    <t>arrow_barrage_projectile_speed</t>
+  </si>
+  <si>
+    <t>arrow_storm</t>
+  </si>
+  <si>
+    <t>arrow_storm_cast_speed</t>
+  </si>
+  <si>
+    <t>arrow_storm_cooldown</t>
+  </si>
+  <si>
+    <t>arrow_storm_damage</t>
+  </si>
+  <si>
+    <t>arrow_storm_healing</t>
+  </si>
+  <si>
+    <t>arrow_storm_mana_cost</t>
+  </si>
+  <si>
+    <t>arrow_storm_projectile_speed</t>
+  </si>
+  <si>
+    <t>awaken_mana</t>
+  </si>
+  <si>
+    <t>awaken_mana_cast_speed</t>
+  </si>
+  <si>
+    <t>awaken_mana_cooldown</t>
+  </si>
+  <si>
+    <t>awaken_mana_damage</t>
+  </si>
+  <si>
+    <t>awaken_mana_healing</t>
+  </si>
+  <si>
+    <t>awaken_mana_mana_cost</t>
+  </si>
+  <si>
+    <t>awaken_mana_projectile_speed</t>
+  </si>
+  <si>
+    <t>big_armor</t>
+  </si>
+  <si>
+    <t>big_crit_dmg</t>
+  </si>
+  <si>
+    <t>big_crit_hit</t>
+  </si>
+  <si>
+    <t>big_dex</t>
+  </si>
+  <si>
+    <t>big_dodge</t>
+  </si>
+  <si>
+    <t>big_health</t>
+  </si>
+  <si>
+    <t>big_int</t>
+  </si>
+  <si>
+    <t>big_magic_shield</t>
+  </si>
+  <si>
+    <t>big_mana</t>
+  </si>
+  <si>
+    <t>big_str</t>
+  </si>
+  <si>
+    <t>blazing_inferno</t>
+  </si>
+  <si>
+    <t>blazing_inferno_cast_speed</t>
+  </si>
+  <si>
+    <t>blazing_inferno_cooldown</t>
+  </si>
+  <si>
+    <t>blazing_inferno_damage</t>
+  </si>
+  <si>
+    <t>blazing_inferno_healing</t>
+  </si>
+  <si>
+    <t>blazing_inferno_mana_cost</t>
+  </si>
+  <si>
+    <t>blazing_inferno_projectile_speed</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>blizzard_cast_speed</t>
+  </si>
+  <si>
+    <t>blizzard_cooldown</t>
+  </si>
+  <si>
+    <t>blizzard_damage</t>
+  </si>
+  <si>
+    <t>blizzard_healing</t>
+  </si>
+  <si>
+    <t>blizzard_mana_cost</t>
+  </si>
+  <si>
+    <t>blizzard_projectile_speed</t>
+  </si>
+  <si>
+    <t>bravery</t>
+  </si>
+  <si>
+    <t>bravery_cast_speed</t>
+  </si>
+  <si>
+    <t>bravery_cooldown</t>
+  </si>
+  <si>
+    <t>bravery_damage</t>
+  </si>
+  <si>
+    <t>bravery_healing</t>
+  </si>
+  <si>
+    <t>bravery_mana_cost</t>
+  </si>
+  <si>
+    <t>bravery_projectile_speed</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>fireball_cast_speed</t>
+  </si>
+  <si>
+    <t>fireball_cooldown</t>
+  </si>
+  <si>
+    <t>fireball_damage</t>
+  </si>
+  <si>
+    <t>fireball_healing</t>
+  </si>
+  <si>
+    <t>fireball_mana_cost</t>
+  </si>
+  <si>
+    <t>fireball_projectile_speed</t>
+  </si>
+  <si>
+    <t>fire_bombs</t>
+  </si>
+  <si>
+    <t>fire_bombs_cast_speed</t>
+  </si>
+  <si>
+    <t>fire_bombs_cooldown</t>
+  </si>
+  <si>
+    <t>fire_bombs_damage</t>
+  </si>
+  <si>
+    <t>fire_bombs_healing</t>
+  </si>
+  <si>
+    <t>fire_bombs_mana_cost</t>
+  </si>
+  <si>
+    <t>fire_bombs_projectile_speed</t>
+  </si>
+  <si>
+    <t>flower_of_ice</t>
+  </si>
+  <si>
+    <t>flower_of_ice_cast_speed</t>
+  </si>
+  <si>
+    <t>flower_of_ice_cooldown</t>
+  </si>
+  <si>
+    <t>flower_of_ice_damage</t>
+  </si>
+  <si>
+    <t>flower_of_ice_healing</t>
+  </si>
+  <si>
+    <t>flower_of_ice_mana_cost</t>
+  </si>
+  <si>
+    <t>flower_of_ice_mana_restore</t>
+  </si>
+  <si>
+    <t>flower_of_ice_projectile_speed</t>
+  </si>
+  <si>
+    <t>frostball</t>
+  </si>
+  <si>
+    <t>frostball_cast_speed</t>
+  </si>
+  <si>
+    <t>frostball_cooldown</t>
+  </si>
+  <si>
+    <t>frostball_damage</t>
+  </si>
+  <si>
+    <t>frostball_healing</t>
+  </si>
+  <si>
+    <t>frostball_mana_cost</t>
+  </si>
+  <si>
+    <t>frostball_projectile_speed</t>
+  </si>
+  <si>
+    <t>gorgons_gaze</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_cast_speed</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_cooldown</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_damage</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_healing</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_mana_cost</t>
+  </si>
+  <si>
+    <t>gorgons_gaze_projectile_speed</t>
+  </si>
+  <si>
+    <t>healing_aura</t>
+  </si>
+  <si>
+    <t>healing_aura_cast_speed</t>
+  </si>
+  <si>
+    <t>healing_aura_cooldown</t>
+  </si>
+  <si>
+    <t>healing_aura_damage</t>
+  </si>
+  <si>
+    <t>healing_aura_healing</t>
+  </si>
+  <si>
+    <t>healing_aura_mana_cost</t>
+  </si>
+  <si>
+    <t>healing_aura_projectile_speed</t>
+  </si>
+  <si>
+    <t>heart_of_ice</t>
+  </si>
+  <si>
+    <t>heart_of_ice_cast_speed</t>
+  </si>
+  <si>
+    <t>heart_of_ice_cooldown</t>
+  </si>
+  <si>
+    <t>heart_of_ice_damage</t>
+  </si>
+  <si>
+    <t>heart_of_ice_healing</t>
+  </si>
+  <si>
+    <t>heart_of_ice_magic_shield</t>
+  </si>
+  <si>
+    <t>heart_of_ice_mana_cost</t>
+  </si>
+  <si>
+    <t>heart_of_ice_projectile_speed</t>
+  </si>
+  <si>
+    <t>holy_flower</t>
+  </si>
+  <si>
+    <t>holy_flower_cast_speed</t>
+  </si>
+  <si>
+    <t>holy_flower_cleanse</t>
+  </si>
+  <si>
+    <t>holy_flower_cooldown</t>
+  </si>
+  <si>
+    <t>holy_flower_damage</t>
+  </si>
+  <si>
+    <t>holy_flower_healing</t>
+  </si>
+  <si>
+    <t>holy_flower_mana_cost</t>
+  </si>
+  <si>
+    <t>holy_flower_projectile_speed</t>
+  </si>
+  <si>
+    <t>imbue</t>
+  </si>
+  <si>
+    <t>imbue_cast_speed</t>
+  </si>
+  <si>
+    <t>imbue_cooldown</t>
+  </si>
+  <si>
+    <t>imbue_damage</t>
+  </si>
+  <si>
+    <t>imbue_healing</t>
+  </si>
+  <si>
+    <t>imbue_mana_cost</t>
+  </si>
+  <si>
+    <t>imbue_projectile_speed</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>lightning_totem</t>
+  </si>
+  <si>
+    <t>lightning_totem_cast_speed</t>
+  </si>
+  <si>
+    <t>lightning_totem_cooldown</t>
+  </si>
+  <si>
+    <t>lightning_totem_damage</t>
+  </si>
+  <si>
+    <t>lightning_totem_healing</t>
+  </si>
+  <si>
+    <t>lightning_totem_mana_cost</t>
+  </si>
+  <si>
+    <t>lightning_totem_projectile_speed</t>
+  </si>
+  <si>
+    <t>magic_bomb</t>
+  </si>
+  <si>
+    <t>magic_bomb_cast_speed</t>
+  </si>
+  <si>
+    <t>magic_bomb_cooldown</t>
+  </si>
+  <si>
+    <t>magic_bomb_damage</t>
+  </si>
+  <si>
+    <t>magic_bomb_healing</t>
+  </si>
+  <si>
+    <t>magic_bomb_mana_cost</t>
+  </si>
+  <si>
+    <t>magic_bomb_projectile_speed</t>
+  </si>
+  <si>
+    <t>magma_flower</t>
+  </si>
+  <si>
+    <t>magma_flower_cast_speed</t>
+  </si>
+  <si>
+    <t>magma_flower_cooldown</t>
+  </si>
+  <si>
+    <t>magma_flower_damage</t>
+  </si>
+  <si>
+    <t>magma_flower_heal</t>
+  </si>
+  <si>
+    <t>magma_flower_healing</t>
+  </si>
+  <si>
+    <t>magma_flower_mana_cost</t>
+  </si>
+  <si>
+    <t>magma_flower_projectile_speed</t>
+  </si>
+  <si>
+    <t>multi_shot</t>
+  </si>
+  <si>
+    <t>multi_shot_cast_speed</t>
+  </si>
+  <si>
+    <t>multi_shot_cooldown</t>
+  </si>
+  <si>
+    <t>multi_shot_damage</t>
+  </si>
+  <si>
+    <t>multi_shot_healing</t>
+  </si>
+  <si>
+    <t>multi_shot_mana_cost</t>
+  </si>
+  <si>
+    <t>multi_shot_projectile_speed</t>
+  </si>
+  <si>
+    <t>nature_balm</t>
+  </si>
+  <si>
+    <t>nature_balm_cast_speed</t>
+  </si>
+  <si>
+    <t>nature_balm_cooldown</t>
+  </si>
+  <si>
+    <t>nature_balm_damage</t>
+  </si>
+  <si>
+    <t>nature_balm_healing</t>
+  </si>
+  <si>
+    <t>nature_balm_mana_cost</t>
+  </si>
+  <si>
+    <t>nature_balm_projectile_speed</t>
+  </si>
+  <si>
+    <t>passive_arcane</t>
+  </si>
+  <si>
+    <t>passive_divine</t>
+  </si>
+  <si>
+    <t>passive_fire</t>
+  </si>
+  <si>
+    <t>passive_hunting</t>
+  </si>
+  <si>
+    <t>passive_nature</t>
+  </si>
+  <si>
+    <t>passive_ocean</t>
+  </si>
+  <si>
+    <t>passive_storm</t>
+  </si>
+  <si>
+    <t>poisoned_weapons</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_cast_speed</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_cooldown</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_damage</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_healing</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_mana_cost</t>
+  </si>
+  <si>
+    <t>poisoned_weapons_projectile_speed</t>
+  </si>
+  <si>
+    <t>poison_ball</t>
+  </si>
+  <si>
+    <t>poison_ball_cast_speed</t>
+  </si>
+  <si>
+    <t>poison_ball_cooldown</t>
+  </si>
+  <si>
+    <t>poison_ball_damage</t>
+  </si>
+  <si>
+    <t>poison_ball_healing</t>
+  </si>
+  <si>
+    <t>poison_ball_mana_cost</t>
+  </si>
+  <si>
+    <t>poison_ball_projectile_speed</t>
+  </si>
+  <si>
+    <t>purifying_fires</t>
+  </si>
+  <si>
+    <t>purifying_fires_cast_speed</t>
+  </si>
+  <si>
+    <t>purifying_fires_cooldown</t>
+  </si>
+  <si>
+    <t>purifying_fires_damage</t>
+  </si>
+  <si>
+    <t>purifying_fires_healing</t>
+  </si>
+  <si>
+    <t>purifying_fires_mana_cost</t>
+  </si>
+  <si>
+    <t>purifying_fires_projectile_speed</t>
+  </si>
+  <si>
+    <t>recoil_shot</t>
+  </si>
+  <si>
+    <t>recoil_shot_cast_speed</t>
+  </si>
+  <si>
+    <t>recoil_shot_cooldown</t>
+  </si>
+  <si>
+    <t>recoil_shot_damage</t>
+  </si>
+  <si>
+    <t>recoil_shot_healing</t>
+  </si>
+  <si>
+    <t>recoil_shot_mana_cost</t>
+  </si>
+  <si>
+    <t>recoil_shot_projectile_speed</t>
+  </si>
+  <si>
+    <t>spear_of_judgement</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_cast_speed</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_cooldown</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_damage</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_healing</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_mana_cost</t>
+  </si>
+  <si>
+    <t>spear_of_judgement_projectile_speed</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>teleport_cast_speed</t>
+  </si>
+  <si>
+    <t>teleport_cooldown</t>
+  </si>
+  <si>
+    <t>teleport_damage</t>
+  </si>
+  <si>
+    <t>teleport_healing</t>
+  </si>
+  <si>
+    <t>teleport_mana_cost</t>
+  </si>
+  <si>
+    <t>teleport_projectile_speed</t>
+  </si>
+  <si>
+    <t>thorn_armor</t>
+  </si>
+  <si>
+    <t>thorn_armor_cast_speed</t>
+  </si>
+  <si>
+    <t>thorn_armor_cooldown</t>
+  </si>
+  <si>
+    <t>thorn_armor_damage</t>
+  </si>
+  <si>
+    <t>thorn_armor_healing</t>
+  </si>
+  <si>
+    <t>thorn_armor_mana_cost</t>
+  </si>
+  <si>
+    <t>thorn_armor_projectile_speed</t>
+  </si>
+  <si>
+    <t>thorn_bush</t>
+  </si>
+  <si>
+    <t>thorn_bush_cast_speed</t>
+  </si>
+  <si>
+    <t>thorn_bush_cooldown</t>
+  </si>
+  <si>
+    <t>thorn_bush_damage</t>
+  </si>
+  <si>
+    <t>thorn_bush_effect</t>
+  </si>
+  <si>
+    <t>thorn_bush_healing</t>
+  </si>
+  <si>
+    <t>thorn_bush_mana_cost</t>
+  </si>
+  <si>
+    <t>thorn_bush_projectile_speed</t>
+  </si>
+  <si>
+    <t>throw_flames</t>
+  </si>
+  <si>
+    <t>throw_flames_burn</t>
+  </si>
+  <si>
+    <t>throw_flames_cast_speed</t>
+  </si>
+  <si>
+    <t>throw_flames_cooldown</t>
+  </si>
+  <si>
+    <t>throw_flames_damage</t>
+  </si>
+  <si>
+    <t>throw_flames_healing</t>
+  </si>
+  <si>
+    <t>throw_flames_mana_cost</t>
+  </si>
+  <si>
+    <t>throw_flames_projectile_speed</t>
+  </si>
+  <si>
+    <t>thunder_dash</t>
+  </si>
+  <si>
+    <t>thunder_dash_cast_speed</t>
+  </si>
+  <si>
+    <t>thunder_dash_cooldown</t>
+  </si>
+  <si>
+    <t>thunder_dash_damage</t>
+  </si>
+  <si>
+    <t>thunder_dash_healing</t>
+  </si>
+  <si>
+    <t>thunder_dash_mana_cost</t>
+  </si>
+  <si>
+    <t>thunder_dash_projectile_speed</t>
+  </si>
+  <si>
+    <t>thunder_spear</t>
+  </si>
+  <si>
+    <t>thunder_spear_cast_speed</t>
+  </si>
+  <si>
+    <t>thunder_spear_cooldown</t>
+  </si>
+  <si>
+    <t>thunder_spear_damage</t>
+  </si>
+  <si>
+    <t>thunder_spear_healing</t>
+  </si>
+  <si>
+    <t>thunder_spear_mana_cost</t>
+  </si>
+  <si>
+    <t>thunder_spear_projectile_speed</t>
+  </si>
+  <si>
+    <t>thunder_storm</t>
+  </si>
+  <si>
+    <t>thunder_storm_cast_speed</t>
+  </si>
+  <si>
+    <t>thunder_storm_cooldown</t>
+  </si>
+  <si>
+    <t>thunder_storm_damage</t>
+  </si>
+  <si>
+    <t>thunder_storm_healing</t>
+  </si>
+  <si>
+    <t>thunder_storm_mana_cost</t>
+  </si>
+  <si>
+    <t>thunder_storm_projectile_speed</t>
+  </si>
+  <si>
+    <t>tidal_wave</t>
+  </si>
+  <si>
+    <t>tidal_wave_cast_speed</t>
+  </si>
+  <si>
+    <t>tidal_wave_cooldown</t>
+  </si>
+  <si>
+    <t>tidal_wave_damage</t>
+  </si>
+  <si>
+    <t>tidal_wave_healing</t>
+  </si>
+  <si>
+    <t>tidal_wave_mana_cost</t>
+  </si>
+  <si>
+    <t>tidal_wave_projectile_speed</t>
+  </si>
+  <si>
+    <t>trickery</t>
+  </si>
+  <si>
+    <t>trickery_cast_speed</t>
+  </si>
+  <si>
+    <t>trickery_cooldown</t>
+  </si>
+  <si>
+    <t>trickery_damage</t>
+  </si>
+  <si>
+    <t>trickery_healing</t>
+  </si>
+  <si>
+    <t>trickery_mana_cost</t>
+  </si>
+  <si>
+    <t>trickery_projectile_speed</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>volcano_cast_speed</t>
+  </si>
+  <si>
+    <t>volcano_cooldown</t>
+  </si>
+  <si>
+    <t>volcano_damage</t>
+  </si>
+  <si>
+    <t>volcano_healing</t>
+  </si>
+  <si>
+    <t>volcano_mana_cost</t>
+  </si>
+  <si>
+    <t>volcano_projectile_speed</t>
+  </si>
+  <si>
+    <t>whirlpool</t>
+  </si>
+  <si>
+    <t>whirlpool_cast_speed</t>
+  </si>
+  <si>
+    <t>whirlpool_cooldown</t>
+  </si>
+  <si>
+    <t>whirlpool_damage</t>
+  </si>
+  <si>
+    <t>whirlpool_healing</t>
+  </si>
+  <si>
+    <t>whirlpool_mana_cost</t>
+  </si>
+  <si>
+    <t>whirlpool_projectile_speed</t>
+  </si>
+  <si>
+    <t>wizardry</t>
+  </si>
+  <si>
+    <t>wizardry_cast_speed</t>
+  </si>
+  <si>
+    <t>wizardry_cooldown</t>
+  </si>
+  <si>
+    <t>wizardry_damage</t>
+  </si>
+  <si>
+    <t>wizardry_healing</t>
+  </si>
+  <si>
+    <t>wizardry_mana_cost</t>
+  </si>
+  <si>
+    <t>wizardry_projectile_speed</t>
+  </si>
+  <si>
+    <t>Spell Mods</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Spell Stats</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>HEALING</t>
+  </si>
+  <si>
+    <t>COOLDOWN</t>
+  </si>
+  <si>
+    <t>MANA_COST</t>
+  </si>
+  <si>
+    <t>CAST_SPEED</t>
+  </si>
+  <si>
+    <t>PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Potion Effects</t>
+  </si>
+  <si>
+    <t>petrify</t>
+  </si>
+  <si>
+    <t>minecraft:poison</t>
+  </si>
+  <si>
+    <t>self_regen</t>
+  </si>
+  <si>
+    <t>minecraft:regeneration</t>
+  </si>
+  <si>
+    <t>minecraft:wither</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>minecraft:slowness</t>
+  </si>
+  <si>
+    <t>minecraft:blindness</t>
+  </si>
+  <si>
+    <t>minecraft:speed</t>
+  </si>
+  <si>
+    <t>wounds</t>
+  </si>
+  <si>
+    <t>judgement</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>cleave</t>
+  </si>
+  <si>
+    <t>ground_slam</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>hunter_instinct</t>
+  </si>
+  <si>
+    <t>shiver</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>thunder_essence</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Fire, Nature</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Arcane, Water</t>
+  </si>
+  <si>
+    <t>Thunder, Fire</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Nature, Thunder</t>
+  </si>
+  <si>
+    <t>strint</t>
+  </si>
+  <si>
+    <t>strdex</t>
+  </si>
+  <si>
+    <t>intdex</t>
+  </si>
+  <si>
+    <t>heavy_strike</t>
+  </si>
+  <si>
+    <t>Cycles:</t>
+  </si>
+  <si>
+    <t>chance_of_</t>
+  </si>
+  <si>
+    <t>weapon_element</t>
+  </si>
+  <si>
+    <t>flicker_strike</t>
+  </si>
+  <si>
+    <t>the_whispering_fire</t>
+  </si>
+  <si>
+    <t>axe3</t>
+  </si>
+  <si>
+    <t>fire_comet</t>
+  </si>
+  <si>
+    <t>Notables</t>
+  </si>
+  <si>
+    <t>Keystones</t>
+  </si>
+  <si>
+    <t>arcane_devotion</t>
+  </si>
+  <si>
+    <t>ghost_reaver</t>
+  </si>
+  <si>
+    <t>acrobatics</t>
+  </si>
+  <si>
+    <t>iron_reflexes</t>
+  </si>
+  <si>
+    <t>vaal_pact</t>
+  </si>
+  <si>
+    <t>zealots_oath</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +2663,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,8 +2699,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1636,6 +2717,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,7 +2751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,11 +2766,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2974,8 +4092,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,12 +5605,20 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:A83 A85:A108">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2:A82">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>C2="?"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>C2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A108">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C83="?"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>C2=""</formula>
+      <formula>C83=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5776,10 +6902,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,6 +8731,14 @@
         <v>455</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>858</v>
+      </c>
+      <c r="B54" t="s">
+        <v>859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7617,8 +8751,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,14 +9365,1925 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J2" t="s">
+        <v>843</v>
+      </c>
+      <c r="K2" t="s">
+        <v>842</v>
+      </c>
+      <c r="L2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="I3" t="s">
+        <v>518</v>
+      </c>
+      <c r="J3" t="s">
+        <v>845</v>
+      </c>
+      <c r="K3" t="s">
+        <v>846</v>
+      </c>
+      <c r="L3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="J4" t="s">
+        <v>848</v>
+      </c>
+      <c r="K4" t="s">
+        <v>842</v>
+      </c>
+      <c r="L4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D5" t="s">
+        <v>837</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" t="s">
+        <v>817</v>
+      </c>
+      <c r="D6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="I6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>819</v>
+      </c>
+      <c r="D7" t="s">
+        <v>832</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="J7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" t="s">
+        <v>829</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="J8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>823</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" t="s">
+        <v>519</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" t="s">
+        <v>825</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" t="s">
+        <v>828</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" t="s">
+        <v>830</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" t="s">
+        <v>826</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" t="s">
+        <v>822</v>
+      </c>
+      <c r="I15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" t="s">
+        <v>833</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" t="s">
+        <v>688</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
+        <v>824</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" t="s">
+        <v>732</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" t="s">
+        <v>783</v>
+      </c>
+      <c r="I20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" t="s">
+        <v>804</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" t="s">
+        <v>831</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>532</v>
+      </c>
+      <c r="D23" t="s">
+        <v>838</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D24" t="s">
+        <v>839</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>534</v>
+      </c>
+      <c r="D25" t="s">
+        <v>840</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D26" t="s">
+        <v>841</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>536</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>644</v>
+      </c>
+      <c r="B28" t="s">
+        <v>537</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>852</v>
+      </c>
+      <c r="B29" t="s">
+        <v>538</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>539</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>540</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>541</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>542</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>543</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>544</v>
+      </c>
+      <c r="I35" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>681</v>
+      </c>
+      <c r="B36" t="s">
+        <v>545</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>682</v>
+      </c>
+      <c r="B37" t="s">
+        <v>556</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>683</v>
+      </c>
+      <c r="B38" t="s">
+        <v>557</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>684</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>685</v>
+      </c>
+      <c r="B40" t="s">
+        <v>559</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>686</v>
+      </c>
+      <c r="B41" t="s">
+        <v>560</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>687</v>
+      </c>
+      <c r="B42" t="s">
+        <v>561</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>562</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>563</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>564</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" t="s">
+        <v>565</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>566</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>567</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>568</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>723</v>
+      </c>
+      <c r="B50" t="s">
+        <v>569</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>724</v>
+      </c>
+      <c r="B51" t="s">
+        <v>570</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>851</v>
+      </c>
+      <c r="B52" t="s">
+        <v>571</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>850</v>
+      </c>
+      <c r="B53" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A55">
+    <sortCondition ref="A55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8260,10 +11305,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5111F9C7-9123-4544-8E5F-8E47C302FDE1}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDCEA33-BD90-4F23-9EF7-50B1E7EA44E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659CBBD-E3D1-470C-B2BA-183CAA7BD448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="5" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="875">
   <si>
     <t>Mod Name</t>
   </si>
@@ -2654,6 +2654,24 @@
   </si>
   <si>
     <t>zealots_oath</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Heart of the Oak</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>yun</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -6015,10 +6033,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,9 +6473,12 @@
         <v>503</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
         <v>200</v>
       </c>
       <c r="F18" t="s">
@@ -6468,6 +6489,9 @@
       </c>
       <c r="H18" t="s">
         <v>266</v>
+      </c>
+      <c r="I18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6634,6 +6658,160 @@
       </c>
       <c r="J23" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>869</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" t="s">
+        <v>267</v>
+      </c>
+      <c r="I25" t="s">
+        <v>275</v>
+      </c>
+      <c r="J25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>870</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>871</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" t="s">
+        <v>275</v>
+      </c>
+      <c r="I27" t="s">
+        <v>873</v>
+      </c>
+      <c r="J27" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>874</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I28" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6654,7 +6832,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8751,8 +8929,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659CBBD-E3D1-470C-B2BA-183CAA7BD448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889A0E3-77A0-4A15-8955-9B5BE4D9574B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -6035,7 +6035,7 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -8929,8 +8929,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INFO H.xlsx
+++ b/INFO H.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Vuu\Documents\GitHub\Craft-to-Exile-Harmony-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889A0E3-77A0-4A15-8955-9B5BE4D9574B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE064DF9-F869-4756-B804-A9357EE4AEDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2715" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{9AC52566-6148-4199-B6AD-F6619CE8FF62}"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Runes!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Runewords!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Uniques!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="932">
   <si>
     <t>Mod Name</t>
   </si>
@@ -2672,6 +2673,177 @@
   </si>
   <si>
     <t>Static</t>
+  </si>
+  <si>
+    <t>cloth_chest4</t>
+  </si>
+  <si>
+    <t>ormus_robes * 9</t>
+  </si>
+  <si>
+    <t>gorebreaker</t>
+  </si>
+  <si>
+    <t>frostbreath</t>
+  </si>
+  <si>
+    <t>mjolner</t>
+  </si>
+  <si>
+    <t>warbreaker</t>
+  </si>
+  <si>
+    <t>iron_hammer</t>
+  </si>
+  <si>
+    <t>diamond_hammer</t>
+  </si>
+  <si>
+    <t>aeternium_hammer</t>
+  </si>
+  <si>
+    <t>the_step</t>
+  </si>
+  <si>
+    <t>leather_boots4</t>
+  </si>
+  <si>
+    <t>plaguewalker</t>
+  </si>
+  <si>
+    <t>leather_boots3</t>
+  </si>
+  <si>
+    <t>sunspite</t>
+  </si>
+  <si>
+    <t>leather_boots2</t>
+  </si>
+  <si>
+    <t>snakeskin</t>
+  </si>
+  <si>
+    <t>dragons_talon</t>
+  </si>
+  <si>
+    <t>dusktoe</t>
+  </si>
+  <si>
+    <t>holy_march</t>
+  </si>
+  <si>
+    <t>cloth_boots3</t>
+  </si>
+  <si>
+    <t>crystal_shroud</t>
+  </si>
+  <si>
+    <t>cloth_boots4</t>
+  </si>
+  <si>
+    <t>ghast_wind</t>
+  </si>
+  <si>
+    <t>sparkoak</t>
+  </si>
+  <si>
+    <t>plate_boots2</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>plate_boots4</t>
+  </si>
+  <si>
+    <t>windshriek</t>
+  </si>
+  <si>
+    <t>the_iron_fortress</t>
+  </si>
+  <si>
+    <t>greeds_embrace</t>
+  </si>
+  <si>
+    <t>plate_chest3</t>
+  </si>
+  <si>
+    <t>hyrris_ire</t>
+  </si>
+  <si>
+    <t>leather_chest3</t>
+  </si>
+  <si>
+    <t>perfect_form_bow</t>
+  </si>
+  <si>
+    <t>perfect_form_xbow</t>
+  </si>
+  <si>
+    <t>the_covenant</t>
+  </si>
+  <si>
+    <t>cloth_chest3</t>
+  </si>
+  <si>
+    <t>shavronnes_wrappings</t>
+  </si>
+  <si>
+    <t>icetomb</t>
+  </si>
+  <si>
+    <t>plate_chest2</t>
+  </si>
+  <si>
+    <t>alphas_roar</t>
+  </si>
+  <si>
+    <t>leather_helmet4</t>
+  </si>
+  <si>
+    <t>the_visage</t>
+  </si>
+  <si>
+    <t>starkonjas_head</t>
+  </si>
+  <si>
+    <t>leather_helmet3</t>
+  </si>
+  <si>
+    <t>rime_gaze</t>
+  </si>
+  <si>
+    <t>griffons_eye</t>
+  </si>
+  <si>
+    <t>kiras_guardian</t>
+  </si>
+  <si>
+    <t>crown_of_ages</t>
+  </si>
+  <si>
+    <t>vampire_gaze</t>
+  </si>
+  <si>
+    <t>abyssus</t>
+  </si>
+  <si>
+    <t>hrimnors_resolve</t>
+  </si>
+  <si>
+    <t>plate_helmet3</t>
+  </si>
+  <si>
+    <t>plate_helmet4</t>
+  </si>
+  <si>
+    <t>plate_helmet2</t>
+  </si>
+  <si>
+    <t>cloth_helmet2</t>
+  </si>
+  <si>
+    <t>harlequin_crest</t>
   </si>
 </sst>
 </file>
@@ -7080,10 +7252,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7169,302 +7341,218 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" t="s">
-        <v>313</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>880</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>312</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
         <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J6" t="s">
-        <v>311</v>
-      </c>
-      <c r="K6" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>858</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" t="s">
-        <v>339</v>
-      </c>
-      <c r="I7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" t="s">
-        <v>334</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="K9" t="s">
         <v>151</v>
       </c>
       <c r="L9" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
         <v>339</v>
-      </c>
-      <c r="E10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" t="s">
-        <v>350</v>
       </c>
       <c r="I10" t="s">
         <v>151</v>
@@ -7475,322 +7563,172 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>893</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" t="s">
-        <v>334</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>895</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" t="s">
-        <v>356</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>897</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" t="s">
-        <v>334</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" t="s">
         <v>155</v>
       </c>
-      <c r="D14" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
       <c r="F14" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
         <v>345</v>
       </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" t="s">
-        <v>337</v>
-      </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K15" t="s">
         <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>910</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>876</v>
+      </c>
+      <c r="B17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>912</v>
+      </c>
+      <c r="B18" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" t="s">
         <v>149</v>
       </c>
-      <c r="J16" t="s">
-        <v>370</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" t="s">
         <v>151</v>
       </c>
-      <c r="L16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="J19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" t="s">
         <v>155</v>
       </c>
-      <c r="D17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" t="s">
-        <v>376</v>
-      </c>
-      <c r="I17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" t="s">
-        <v>376</v>
-      </c>
-      <c r="K17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" t="s">
-        <v>377</v>
-      </c>
-      <c r="M17" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" t="s">
-        <v>380</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="s">
-        <v>381</v>
-      </c>
-      <c r="I18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>353</v>
-      </c>
-      <c r="G19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" t="s">
-        <v>204</v>
-      </c>
       <c r="D20" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="E20" t="s">
         <v>154</v>
@@ -7799,1125 +7737,1652 @@
         <v>353</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
-      </c>
-      <c r="I21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" t="s">
-        <v>390</v>
-      </c>
-      <c r="K21" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
         <v>338</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
         <v>345</v>
       </c>
       <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" t="s">
         <v>150</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>345</v>
       </c>
-      <c r="K22" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>396</v>
-      </c>
-      <c r="G23" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" t="s">
-        <v>397</v>
-      </c>
-      <c r="I23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" t="s">
-        <v>390</v>
-      </c>
-      <c r="K23" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>398</v>
-      </c>
-      <c r="B24" t="s">
-        <v>399</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>345</v>
       </c>
       <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>359</v>
+      </c>
+      <c r="K24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>370</v>
+      </c>
+      <c r="K25" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>376</v>
+      </c>
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" t="s">
+        <v>376</v>
+      </c>
+      <c r="K26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>377</v>
+      </c>
+      <c r="M26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>878</v>
+      </c>
+      <c r="B27" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B31" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>389</v>
+      </c>
+      <c r="I32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" t="s">
+        <v>390</v>
+      </c>
+      <c r="K32" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>892</v>
+      </c>
+      <c r="B33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>345</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" t="s">
+        <v>345</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>888</v>
+      </c>
+      <c r="B35" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>886</v>
+      </c>
+      <c r="B36" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>890</v>
+      </c>
+      <c r="B37" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>884</v>
+      </c>
+      <c r="B38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>891</v>
+      </c>
+      <c r="B39" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>396</v>
+      </c>
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" t="s">
+        <v>390</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
         <v>400</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G41" t="s">
         <v>143</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H41" t="s">
         <v>350</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I41" t="s">
         <v>137</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J41" t="s">
         <v>350</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K41" t="s">
         <v>106</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L41" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>906</v>
+      </c>
+      <c r="B42" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>401</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B43" t="s">
         <v>402</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D43" t="s">
         <v>374</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E43" t="s">
         <v>123</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F43" t="s">
         <v>403</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G43" t="s">
         <v>118</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H43" t="s">
         <v>404</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I43" t="s">
         <v>190</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J43" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>908</v>
+      </c>
+      <c r="B44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>909</v>
+      </c>
+      <c r="B45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>405</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B46" t="s">
         <v>406</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C46" t="s">
         <v>167</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D46" t="s">
         <v>339</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E46" t="s">
         <v>149</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F46" t="s">
         <v>349</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G46" t="s">
         <v>137</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H46" t="s">
         <v>350</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I46" t="s">
         <v>122</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J46" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>407</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B47" t="s">
         <v>408</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C47" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D47" t="s">
         <v>310</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E47" t="s">
         <v>154</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F47" t="s">
         <v>353</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G47" t="s">
         <v>122</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>409</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B48" t="s">
         <v>410</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C48" t="s">
         <v>123</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D48" t="s">
         <v>329</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F48" t="s">
         <v>356</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G48" t="s">
         <v>132</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H48" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>357</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B49" t="s">
         <v>411</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C49" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D49" t="s">
         <v>338</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E49" t="s">
         <v>123</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F49" t="s">
         <v>339</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G49" t="s">
         <v>103</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H49" t="s">
         <v>345</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I49" t="s">
         <v>154</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J49" t="s">
         <v>359</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K49" t="s">
         <v>122</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>412</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B50" t="s">
         <v>413</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C50" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D50" t="s">
         <v>337</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E50" t="s">
         <v>137</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F50" t="s">
         <v>414</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G50" t="s">
         <v>200</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H50" t="s">
         <v>414</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I50" t="s">
         <v>109</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J50" t="s">
         <v>414</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K50" t="s">
         <v>110</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L50" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>415</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B51" t="s">
         <v>416</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C51" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D51" t="s">
         <v>417</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E51" t="s">
         <v>200</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F51" t="s">
         <v>414</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G51" t="s">
         <v>108</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H51" t="s">
         <v>418</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I51" t="s">
         <v>134</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J51" t="s">
         <v>418</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K51" t="s">
         <v>148</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L51" t="s">
         <v>362</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M51" t="s">
         <v>151</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N51" t="s">
         <v>419</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O51" t="s">
         <v>122</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P51" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>420</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B52" t="s">
         <v>421</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C52" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D52" t="s">
         <v>422</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E52" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F52" t="s">
         <v>423</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G52" t="s">
         <v>144</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H52" t="s">
         <v>424</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I52" t="s">
         <v>190</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J52" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>425</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B53" t="s">
         <v>426</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C53" t="s">
         <v>160</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D53" t="s">
         <v>322</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E53" t="s">
         <v>166</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F53" t="s">
         <v>427</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G53" t="s">
         <v>151</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H53" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>428</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B54" t="s">
         <v>429</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C54" t="s">
         <v>101</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D54" t="s">
         <v>337</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E54" t="s">
         <v>132</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F54" t="s">
         <v>367</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G54" t="s">
         <v>101</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H54" t="s">
         <v>322</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I54" t="s">
         <v>121</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J54" t="s">
         <v>430</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K54" t="s">
         <v>189</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L54" t="s">
         <v>430</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M54" t="s">
         <v>190</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>431</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B55" t="s">
         <v>432</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C55" t="s">
         <v>194</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D55" t="s">
         <v>433</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E55" t="s">
         <v>112</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F55" t="s">
         <v>345</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G55" t="s">
         <v>303</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H55" t="s">
         <v>434</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I55" t="s">
         <v>115</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J55" t="s">
         <v>359</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K55" t="s">
         <v>190</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L55" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>898</v>
+      </c>
+      <c r="B56" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>900</v>
+      </c>
+      <c r="B57" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>902</v>
+      </c>
+      <c r="B58" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>435</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B59" t="s">
         <v>436</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C59" t="s">
         <v>189</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D59" t="s">
         <v>322</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E59" t="s">
         <v>101</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F59" t="s">
         <v>356</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G59" t="s">
         <v>158</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H59" t="s">
         <v>353</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I59" t="s">
         <v>174</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J59" t="s">
         <v>437</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K59" t="s">
         <v>190</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L59" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>438</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B60" t="s">
         <v>439</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C60" t="s">
         <v>101</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D60" t="s">
         <v>321</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E60" t="s">
         <v>132</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F60" t="s">
         <v>440</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G60" t="s">
         <v>204</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H60" t="s">
         <v>350</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I60" t="s">
         <v>190</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J60" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>913</v>
+      </c>
+      <c r="B61" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>904</v>
+      </c>
+      <c r="B62" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>442</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B63" t="s">
         <v>443</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C63" t="s">
         <v>143</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D63" t="s">
         <v>374</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E63" t="s">
         <v>145</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F63" t="s">
         <v>311</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G63" t="s">
         <v>147</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H63" t="s">
         <v>311</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I63" t="s">
         <v>149</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J63" t="s">
         <v>444</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K63" t="s">
         <v>190</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L63" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>903</v>
+      </c>
+      <c r="B64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>445</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B65" t="s">
         <v>446</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C65" t="s">
         <v>167</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D65" t="s">
         <v>339</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E65" t="s">
         <v>149</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F65" t="s">
         <v>349</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G65" t="s">
         <v>137</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H65" t="s">
         <v>350</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I65" t="s">
         <v>190</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>447</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B66" t="s">
         <v>448</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C66" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D66" t="s">
         <v>310</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E66" t="s">
         <v>154</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F66" t="s">
         <v>353</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G66" t="s">
         <v>190</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H66" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>449</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B67" t="s">
         <v>450</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C67" t="s">
         <v>101</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D67" t="s">
         <v>329</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E67" t="s">
         <v>154</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F67" t="s">
         <v>356</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G67" t="s">
         <v>132</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>451</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B68" t="s">
         <v>452</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D68" t="s">
         <v>338</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E68" t="s">
         <v>101</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F68" t="s">
         <v>339</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G68" t="s">
         <v>103</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I68" t="s">
         <v>154</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J68" t="s">
         <v>359</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K68" t="s">
         <v>190</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L68" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>453</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B69" t="s">
         <v>454</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D69" t="s">
         <v>346</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E69" t="s">
         <v>101</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F69" t="s">
         <v>434</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G69" t="s">
         <v>143</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H69" t="s">
         <v>455</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I69" t="s">
         <v>123</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J69" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>457</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B70" t="s">
         <v>458</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C70" t="s">
         <v>148</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D70" t="s">
         <v>455</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E70" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F70" t="s">
         <v>459</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G70" t="s">
         <v>161</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H70" t="s">
         <v>322</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I70" t="s">
         <v>189</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J70" t="s">
         <v>374</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K70" t="s">
         <v>190</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L70" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>460</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B71" t="s">
         <v>461</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C71" t="s">
         <v>142</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D71" t="s">
         <v>455</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E71" t="s">
         <v>148</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F71" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>462</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B72" t="s">
         <v>463</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C72" t="s">
         <v>175</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D72" t="s">
         <v>464</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E72" t="s">
         <v>148</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F72" t="s">
         <v>375</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G72" t="s">
         <v>151</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H72" t="s">
         <v>323</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I72" t="s">
         <v>190</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J72" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>465</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B73" t="s">
         <v>466</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C73" t="s">
         <v>195</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D73" t="s">
         <v>467</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E73" t="s">
         <v>148</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F73" t="s">
         <v>468</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G73" t="s">
         <v>142</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H73" t="s">
         <v>311</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I73" t="s">
         <v>190</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J73" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>469</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B74" t="s">
         <v>300</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C74" t="s">
         <v>204</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D74" t="s">
         <v>470</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E74" t="s">
         <v>103</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F74" t="s">
         <v>430</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G74" t="s">
         <v>143</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H74" t="s">
         <v>317</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I74" t="s">
         <v>152</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J74" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>471</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B75" t="s">
         <v>472</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C75" t="s">
         <v>201</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D75" t="s">
         <v>473</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E75" t="s">
         <v>201</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F75" t="s">
         <v>329</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G75" t="s">
         <v>474</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H75" t="s">
         <v>329</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I75" t="s">
         <v>151</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J75" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>475</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B76" t="s">
         <v>476</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C76" t="s">
         <v>195</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D76" t="s">
         <v>477</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E76" t="s">
         <v>112</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F76" t="s">
         <v>374</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G76" t="s">
         <v>117</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H76" t="s">
         <v>478</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I76" t="s">
         <v>97</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J76" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>480</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B77" t="s">
         <v>297</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C77" t="s">
         <v>204</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D77" t="s">
         <v>375</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E77" t="s">
         <v>108</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F77" t="s">
         <v>367</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G77" t="s">
         <v>134</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H77" t="s">
         <v>367</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I77" t="s">
         <v>184</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J77" t="s">
         <v>322</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K77" t="s">
         <v>146</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L77" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>481</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B78" t="s">
         <v>298</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C78" t="s">
         <v>204</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D78" t="s">
         <v>375</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E78" t="s">
         <v>109</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F78" t="s">
         <v>322</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G78" t="s">
         <v>110</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H78" t="s">
         <v>322</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I78" t="s">
         <v>111</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J78" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>482</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B79" t="s">
         <v>299</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C79" t="s">
         <v>204</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D79" t="s">
         <v>417</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E79" t="s">
         <v>103</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F79" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>858</v>
-      </c>
-      <c r="B54" t="s">
-        <v>859</v>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>915</v>
+      </c>
+      <c r="B80" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>917</v>
+      </c>
+      <c r="B81" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>918</v>
+      </c>
+      <c r="B82" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>920</v>
+      </c>
+      <c r="B83" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>921</v>
+      </c>
+      <c r="B84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>922</v>
+      </c>
+      <c r="B85" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>923</v>
+      </c>
+      <c r="B86" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>924</v>
+      </c>
+      <c r="B87" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>925</v>
+      </c>
+      <c r="B88" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>926</v>
+      </c>
+      <c r="B89" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>931</v>
+      </c>
+      <c r="B90" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1" xr:uid="{93BD6150-B184-4D6F-9423-14648E8D4264}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V79">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8929,8 +9394,8 @@
   </sheetPr>
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
